--- a/pred_ohlcv/54_21/2019-10-25 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-993143.4857065198</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-446869.9242182899</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-446169.9242182899</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>435313.0028817101</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>330103.5614620501</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>493304.4785540001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>395667.6131540001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>189875.3957540001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>555271.2046540001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>521554.6011540001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>521564.6011540001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>505224.4717540002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>488234.1529540002</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>281380.3334540002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>470944.6712540002</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1040582.864254</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1040617.864254</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1040617.864254</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1026861.617654</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1026861.617654</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1026861.617654</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1017861.617654</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1023608.744054</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>993031.0807540001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1023731.080754</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1023731.080754</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>841832.0807540001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>831832.0807540001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>895455.654554</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>895455.654554</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>861035.690654</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1095780.365254</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>924587.918654</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>413739.507654</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>9635381.179954583</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-25 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>74821.06363157002</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1017137.50970652</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1017137.50970652</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1110555.39740652</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-993143.4857065198</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-296814.0993065198</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-287746.4070065198</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-287569.9364182898</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-287450.2598182898</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-287450.2598182898</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-579840.0697182899</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-514398.8933182899</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-517114.0003182899</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-444814.0003182899</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-447313.5642182899</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-447313.5642182899</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-445021.5642182899</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-446869.9242182899</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-446869.9242182899</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-446169.9242182899</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-456095.9512182899</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-456085.9512182899</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>435313.0028817101</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>435656.0086620501</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>330103.5614620501</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>330919.3953620501</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>493304.4785540001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>395667.6131540001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>410148.4801540001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>189875.3957540001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>228321.0897540001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>555271.2046540001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>521704.6011540001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>521554.6011540001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>521564.6011540001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>505224.4717540002</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>505234.4717540002</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>488234.1529540002</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>488244.1529540002</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>293736.7709540002</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>281380.3334540002</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>470914.6712540002</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>470944.6712540002</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>441299.0119540002</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1040582.864254</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1040617.864254</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1040617.864254</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1026861.617654</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1026861.617654</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1026861.617654</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1017861.617654</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1023608.744054</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>993031.0807540001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1018731.080754</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1023731.080754</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1023731.080754</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>841821.0807540001</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>841832.0807540001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>831832.0807540001</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>832932.0807540001</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>830439.9974540001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>895455.654554</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>895455.654554</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>861035.690654</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>998594.8652540001</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1095780.365254</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>924523.7709540001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>924587.918654</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>413739.507654</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>3057134.446506991</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>2757017.319506991</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2757027.319506991</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2638024.375095881</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>2636868.404895881</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>8511856.459754582</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>8511866.459754582</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>8506138.160954582</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>9753325.840454582</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>9609573.450754583</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>9635381.179954583</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
